--- a/medicine/Médecine vétérinaire/Pasteurellose/Pasteurellose.xlsx
+++ b/medicine/Médecine vétérinaire/Pasteurellose/Pasteurellose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pasteurellose est une maladie infectieuse (animale ou humaine) due aux germes du genre Pasteurella dont le plus fréquent en pathologie humaine est Pasteurella multocida,
 Le plus souvent il s'agit d'une inoculation par morsure ou griffure de chien ou de chat (portage autour de 40 à 50 % d'entre eux).
 Elle se manifeste par l'apparition en moins de 24 heures de douleurs très vives associées à un aspect local très inflammatoire.
 Le traitement repose sur l'antibiothérapie (cyclines ou association amoxicilline-acide clavulanique)
-De nombreuses espèces peuvent être porteuses de ces bactéries, dont des espèces de gibier consommées par l'homme, dont le sanglier[1].
+De nombreuses espèces peuvent être porteuses de ces bactéries, dont des espèces de gibier consommées par l'homme, dont le sanglier.
 </t>
         </is>
       </c>
